--- a/NTFS Kicroit.xlsx
+++ b/NTFS Kicroit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px65goi\Documents\pré-tpi\Semaine 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px65goi\Documents\TPI Andrea Fontana\TPI-Infrastrucutre-d-une-PME-avec-deux-sites-distants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4EA98B-9E61-4599-A1FB-716BA160AD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1B0A00-92E8-4FBB-A29A-DB6A92F8534C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A1E0834-7996-489E-A433-9CB37EB39F3B}"/>
   </bookViews>
@@ -37,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Admins du domaines</t>
   </si>
   <si>
-    <t>\Direction</t>
-  </si>
-  <si>
     <t>CT</t>
   </si>
   <si>
@@ -66,16 +63,19 @@
     <t>Permissions NTFS</t>
   </si>
   <si>
-    <t>\Vente</t>
-  </si>
-  <si>
     <t>F:\</t>
   </si>
   <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>Employés</t>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Finances</t>
+  </si>
+  <si>
+    <t>\Marketing</t>
+  </si>
+  <si>
+    <t>\Finances</t>
   </si>
 </sst>
 </file>
@@ -459,14 +459,14 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -982,7 +982,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,7 +996,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1015,22 +1015,22 @@
         <v>0</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
+        <v>8</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1039,15 +1039,15 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="22" t="s">
-        <v>1</v>
+      <c r="C4" s="24" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
@@ -1055,18 +1055,16 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="22" t="s">
-        <v>9</v>
+      <c r="C5" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -1083,28 +1081,28 @@
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="14"/>
     </row>

--- a/NTFS Kicroit.xlsx
+++ b/NTFS Kicroit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px65goi\Documents\TPI Andrea Fontana\TPI-Infrastrucutre-d-une-PME-avec-deux-sites-distants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1B0A00-92E8-4FBB-A29A-DB6A92F8534C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23396E12-6593-4309-8D55-EFEC3A383A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A1E0834-7996-489E-A433-9CB37EB39F3B}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Permissions NTFS</t>
   </si>
   <si>
-    <t>F:\</t>
-  </si>
-  <si>
     <t>Marketing</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>\Finances</t>
+  </si>
+  <si>
+    <t>F:\Serveur de Fichiers</t>
   </si>
 </sst>
 </file>
@@ -982,12 +982,13 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="7" width="10.42578125" customWidth="1"/>
@@ -1015,17 +1016,17 @@
         <v>0</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="23"/>
@@ -1040,7 +1041,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="11"/>
       <c r="C4" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="3" t="s">
@@ -1056,7 +1057,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="11"/>
       <c r="C5" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="3" t="s">
